--- a/data/china_ie_partner/2016-07.xlsx
+++ b/data/china_ie_partner/2016-07.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D720FF9-F2B7-3644-91D1-8CCE8A1238A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CAC1D-1DEA-BA4A-AD09-2E4D43272C13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,732 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -769,13 +46,980 @@
     <t>year</t>
   </si>
   <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,10 +1070,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1193,7 +1438,7 @@
   <dimension ref="A1:J248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A245"/>
+      <selection activeCell="D2" sqref="D2:D245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1209,24 +1454,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>246</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>26776</v>
+        <v>40638</v>
       </c>
       <c r="C2" s="2">
-        <v>26365</v>
+        <v>40014</v>
       </c>
       <c r="D2" s="3">
-        <v>411</v>
+        <v>623</v>
       </c>
       <c r="E2" s="5">
         <v>2016</v>
@@ -1240,17 +1485,17 @@
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
+      <c r="A3" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>49512</v>
+        <v>75261</v>
       </c>
       <c r="C3" s="2">
-        <v>44552</v>
+        <v>67743</v>
       </c>
       <c r="D3" s="2">
-        <v>4961</v>
+        <v>7518</v>
       </c>
       <c r="E3" s="5">
         <v>2016</v>
@@ -1264,17 +1509,17 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>727097</v>
+        <v>1105483</v>
       </c>
       <c r="C4" s="2">
-        <v>678287</v>
+        <v>1031551</v>
       </c>
       <c r="D4" s="2">
-        <v>48810</v>
+        <v>73933</v>
       </c>
       <c r="E4" s="5">
         <v>2016</v>
@@ -1288,17 +1533,17 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="21">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>381</v>
+        <v>582</v>
       </c>
       <c r="C5" s="3">
-        <v>355</v>
+        <v>542</v>
       </c>
       <c r="D5" s="3">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E5" s="5">
         <v>2016</v>
@@ -1312,17 +1557,17 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="21">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
+      <c r="A6" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>31491</v>
+        <v>47855</v>
       </c>
       <c r="C6" s="2">
-        <v>26691</v>
+        <v>40525</v>
       </c>
       <c r="D6" s="2">
-        <v>4800</v>
+        <v>7331</v>
       </c>
       <c r="E6" s="5">
         <v>2016</v>
@@ -1336,17 +1581,17 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="21">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
+      <c r="A7" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>634976</v>
+        <v>962006</v>
       </c>
       <c r="C7" s="2">
-        <v>436343</v>
+        <v>661407</v>
       </c>
       <c r="D7" s="2">
-        <v>198633</v>
+        <v>300600</v>
       </c>
       <c r="E7" s="5">
         <v>2016</v>
@@ -1360,17 +1605,17 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
+      <c r="A8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>281545</v>
+        <v>427400</v>
       </c>
       <c r="C8" s="2">
-        <v>213279</v>
+        <v>323874</v>
       </c>
       <c r="D8" s="2">
-        <v>68266</v>
+        <v>103526</v>
       </c>
       <c r="E8" s="5">
         <v>2016</v>
@@ -1384,17 +1629,17 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
+      <c r="A9" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>39385</v>
+        <v>59777</v>
       </c>
       <c r="C9" s="2">
-        <v>36698</v>
+        <v>55709</v>
       </c>
       <c r="D9" s="2">
-        <v>2688</v>
+        <v>4068</v>
       </c>
       <c r="E9" s="5">
         <v>2016</v>
@@ -1408,17 +1653,17 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="21">
-      <c r="A10" s="4" t="s">
-        <v>12</v>
+      <c r="A10" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>280562</v>
+        <v>426132</v>
       </c>
       <c r="C10" s="2">
-        <v>127562</v>
+        <v>194076</v>
       </c>
       <c r="D10" s="2">
-        <v>153000</v>
+        <v>232056</v>
       </c>
       <c r="E10" s="5">
         <v>2016</v>
@@ -1433,16 +1678,16 @@
     </row>
     <row r="11" spans="1:10" ht="21">
       <c r="A11" s="6" t="s">
-        <v>248</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>17748543</v>
+        <v>26950638</v>
       </c>
       <c r="C11" s="2">
-        <v>16013457</v>
+        <v>24321793</v>
       </c>
       <c r="D11" s="2">
-        <v>1735086</v>
+        <v>2628845</v>
       </c>
       <c r="E11" s="5">
         <v>2016</v>
@@ -1456,17 +1701,17 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" ht="21">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
+      <c r="A12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4035616</v>
+        <v>6130619</v>
       </c>
       <c r="C12" s="2">
-        <v>3478488</v>
+        <v>5285767</v>
       </c>
       <c r="D12" s="2">
-        <v>557129</v>
+        <v>844852</v>
       </c>
       <c r="E12" s="5">
         <v>2016</v>
@@ -1480,17 +1725,17 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
+      <c r="A13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>2836948</v>
+        <v>4308295</v>
       </c>
       <c r="C13" s="2">
-        <v>1804773</v>
+        <v>2741488</v>
       </c>
       <c r="D13" s="2">
-        <v>1032175</v>
+        <v>1566807</v>
       </c>
       <c r="E13" s="5">
         <v>2016</v>
@@ -1504,17 +1749,17 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
+      <c r="A14" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>1742980</v>
+        <v>2642120</v>
       </c>
       <c r="C14" s="2">
-        <v>918302</v>
+        <v>1392470</v>
       </c>
       <c r="D14" s="2">
-        <v>824677</v>
+        <v>1249650</v>
       </c>
       <c r="E14" s="5">
         <v>2016</v>
@@ -1528,17 +1773,17 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1144998</v>
+        <v>1738911</v>
       </c>
       <c r="C15" s="2">
-        <v>448931</v>
+        <v>682250</v>
       </c>
       <c r="D15" s="2">
-        <v>696067</v>
+        <v>1056661</v>
       </c>
       <c r="E15" s="5">
         <v>2016</v>
@@ -1552,17 +1797,17 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="21">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
+      <c r="A16" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>681418</v>
+        <v>1035094</v>
       </c>
       <c r="C16" s="2">
-        <v>514507</v>
+        <v>782134</v>
       </c>
       <c r="D16" s="2">
-        <v>166911</v>
+        <v>252960</v>
       </c>
       <c r="E16" s="5">
         <v>2016</v>
@@ -1576,17 +1821,17 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
+      <c r="A17" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>14826644</v>
+        <v>22618654</v>
       </c>
       <c r="C17" s="2">
-        <v>6906716</v>
+        <v>10513493</v>
       </c>
       <c r="D17" s="2">
-        <v>7919928</v>
+        <v>12105161</v>
       </c>
       <c r="E17" s="5">
         <v>2016</v>
@@ -1600,17 +1845,17 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>144055</v>
+        <v>218877</v>
       </c>
       <c r="C18" s="2">
-        <v>137135</v>
+        <v>208391</v>
       </c>
       <c r="D18" s="2">
-        <v>6920</v>
+        <v>10487</v>
       </c>
       <c r="E18" s="5">
         <v>2016</v>
@@ -1624,17 +1869,17 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="21">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
+      <c r="A19" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>631003</v>
+        <v>957870</v>
       </c>
       <c r="C19" s="2">
-        <v>159848</v>
+        <v>243009</v>
       </c>
       <c r="D19" s="2">
-        <v>471155</v>
+        <v>714861</v>
       </c>
       <c r="E19" s="5">
         <v>2016</v>
@@ -1648,17 +1893,17 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="21">
-      <c r="A20" s="4" t="s">
-        <v>21</v>
+      <c r="A20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>94834</v>
+        <v>143586</v>
       </c>
       <c r="C20" s="2">
-        <v>46587</v>
+        <v>70579</v>
       </c>
       <c r="D20" s="2">
-        <v>48247</v>
+        <v>73007</v>
       </c>
       <c r="E20" s="5">
         <v>2016</v>
@@ -1672,17 +1917,17 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="21">
-      <c r="A21" s="4" t="s">
-        <v>22</v>
+      <c r="A21" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>110734</v>
+        <v>168373</v>
       </c>
       <c r="C21" s="2">
-        <v>109650</v>
+        <v>166729</v>
       </c>
       <c r="D21" s="2">
-        <v>1084</v>
+        <v>1644</v>
       </c>
       <c r="E21" s="5">
         <v>2016</v>
@@ -1696,17 +1941,17 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="21">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
+      <c r="A22" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>199428</v>
+        <v>302494</v>
       </c>
       <c r="C22" s="2">
-        <v>192342</v>
+        <v>291753</v>
       </c>
       <c r="D22" s="2">
-        <v>7086</v>
+        <v>10741</v>
       </c>
       <c r="E22" s="5">
         <v>2016</v>
@@ -1720,17 +1965,17 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="21">
-      <c r="A23" s="4" t="s">
-        <v>249</v>
+      <c r="A23" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>4637158</v>
+        <v>7043054</v>
       </c>
       <c r="C23" s="2">
-        <v>2239761</v>
+        <v>3403999</v>
       </c>
       <c r="D23" s="2">
-        <v>2397398</v>
+        <v>3639055</v>
       </c>
       <c r="E23" s="5">
         <v>2016</v>
@@ -1744,17 +1989,17 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
+      <c r="A24" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>12398</v>
+        <v>18860</v>
       </c>
       <c r="C24" s="2">
-        <v>12379</v>
+        <v>18831</v>
       </c>
       <c r="D24" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5">
         <v>2016</v>
@@ -1768,17 +2013,17 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="4" t="s">
-        <v>25</v>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>212551</v>
+        <v>322114</v>
       </c>
       <c r="C25" s="2">
-        <v>58677</v>
+        <v>88814</v>
       </c>
       <c r="D25" s="2">
-        <v>153874</v>
+        <v>233300</v>
       </c>
       <c r="E25" s="5">
         <v>2016</v>
@@ -1792,17 +2037,17 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="21">
-      <c r="A26" s="4" t="s">
-        <v>222</v>
+      <c r="A26" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>54432</v>
+        <v>82468</v>
       </c>
       <c r="C26" s="2">
-        <v>53350</v>
+        <v>80832</v>
       </c>
       <c r="D26" s="2">
-        <v>1082</v>
+        <v>1636</v>
       </c>
       <c r="E26" s="5">
         <v>2016</v>
@@ -1816,17 +2061,17 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="21">
-      <c r="A27" s="4" t="s">
-        <v>26</v>
+      <c r="A27" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>735772</v>
+        <v>1116338</v>
       </c>
       <c r="C27" s="2">
-        <v>147651</v>
+        <v>224653</v>
       </c>
       <c r="D27" s="2">
-        <v>588121</v>
+        <v>891685</v>
       </c>
       <c r="E27" s="5">
         <v>2016</v>
@@ -1840,17 +2085,17 @@
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="21">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
+      <c r="A28" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1037028</v>
+        <v>1575741</v>
       </c>
       <c r="C28" s="2">
-        <v>950412</v>
+        <v>1444455</v>
       </c>
       <c r="D28" s="2">
-        <v>86615</v>
+        <v>131287</v>
       </c>
       <c r="E28" s="5">
         <v>2016</v>
@@ -1864,17 +2109,17 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="4" t="s">
-        <v>28</v>
+      <c r="A29" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>3850</v>
+        <v>5860</v>
       </c>
       <c r="C29" s="2">
-        <v>3816</v>
+        <v>5808</v>
       </c>
       <c r="D29" s="3">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E29" s="5">
         <v>2016</v>
@@ -1888,17 +2133,17 @@
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="4" t="s">
-        <v>29</v>
+      <c r="A30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>2521213</v>
+        <v>3829550</v>
       </c>
       <c r="C30" s="2">
-        <v>1553391</v>
+        <v>2360778</v>
       </c>
       <c r="D30" s="2">
-        <v>967822</v>
+        <v>1468772</v>
       </c>
       <c r="E30" s="5">
         <v>2016</v>
@@ -1912,17 +2157,17 @@
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
+      <c r="A31" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>218467</v>
+        <v>331509</v>
       </c>
       <c r="C31" s="2">
-        <v>92079</v>
+        <v>139972</v>
       </c>
       <c r="D31" s="2">
-        <v>126388</v>
+        <v>191537</v>
       </c>
       <c r="E31" s="5">
         <v>2016</v>
@@ -1936,17 +2181,17 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="4" t="s">
-        <v>31</v>
+      <c r="A32" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2496643</v>
+        <v>3788420</v>
       </c>
       <c r="C32" s="2">
-        <v>1123421</v>
+        <v>1707099</v>
       </c>
       <c r="D32" s="2">
-        <v>1373221</v>
+        <v>2081321</v>
       </c>
       <c r="E32" s="5">
         <v>2016</v>
@@ -1960,17 +2205,17 @@
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="4" t="s">
-        <v>32</v>
+      <c r="A33" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4176906</v>
+        <v>6346410</v>
       </c>
       <c r="C33" s="2">
-        <v>2654917</v>
+        <v>4038139</v>
       </c>
       <c r="D33" s="2">
-        <v>1521989</v>
+        <v>2308272</v>
       </c>
       <c r="E33" s="5">
         <v>2016</v>
@@ -1984,17 +2229,17 @@
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="4" t="s">
-        <v>33</v>
+      <c r="A34" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>13555698</v>
+        <v>20573541</v>
       </c>
       <c r="C34" s="2">
-        <v>5142901</v>
+        <v>7813391</v>
       </c>
       <c r="D34" s="2">
-        <v>8412797</v>
+        <v>12760150</v>
       </c>
       <c r="E34" s="5">
         <v>2016</v>
@@ -2008,17 +2253,17 @@
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="4" t="s">
-        <v>34</v>
+      <c r="A35" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>248543</v>
+        <v>377494</v>
       </c>
       <c r="C35" s="2">
-        <v>234169</v>
+        <v>355726</v>
       </c>
       <c r="D35" s="2">
-        <v>14375</v>
+        <v>21768</v>
       </c>
       <c r="E35" s="5">
         <v>2016</v>
@@ -2032,17 +2277,17 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="21">
-      <c r="A36" s="4" t="s">
-        <v>35</v>
+      <c r="A36" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>48569</v>
+        <v>73821</v>
       </c>
       <c r="C36" s="2">
-        <v>48448</v>
+        <v>73638</v>
       </c>
       <c r="D36" s="3">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="E36" s="5">
         <v>2016</v>
@@ -2056,17 +2301,17 @@
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
+      <c r="A37" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>3992547</v>
+        <v>6060751</v>
       </c>
       <c r="C37" s="2">
-        <v>2144693</v>
+        <v>3256749</v>
       </c>
       <c r="D37" s="2">
-        <v>1847854</v>
+        <v>2804002</v>
       </c>
       <c r="E37" s="5">
         <v>2016</v>
@@ -2080,17 +2325,17 @@
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
+      <c r="A38" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1123095</v>
+        <v>1707139</v>
       </c>
       <c r="C38" s="2">
-        <v>963359</v>
+        <v>1465276</v>
       </c>
       <c r="D38" s="2">
-        <v>159736</v>
+        <v>241863</v>
       </c>
       <c r="E38" s="5">
         <v>2016</v>
@@ -2104,17 +2349,17 @@
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
+      <c r="A39" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2312909</v>
+        <v>3512323</v>
       </c>
       <c r="C39" s="2">
-        <v>1719123</v>
+        <v>2612835</v>
       </c>
       <c r="D39" s="2">
-        <v>593787</v>
+        <v>899488</v>
       </c>
       <c r="E39" s="5">
         <v>2016</v>
@@ -2128,17 +2373,17 @@
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="4" t="s">
-        <v>39</v>
+      <c r="A40" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>87222</v>
+        <v>132630</v>
       </c>
       <c r="C40" s="2">
-        <v>85700</v>
+        <v>130320</v>
       </c>
       <c r="D40" s="2">
-        <v>1523</v>
+        <v>2311</v>
       </c>
       <c r="E40" s="5">
         <v>2016</v>
@@ -2152,17 +2397,17 @@
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
+      <c r="A41" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>5185365</v>
+        <v>7864425</v>
       </c>
       <c r="C41" s="2">
-        <v>3332115</v>
+        <v>5054552</v>
       </c>
       <c r="D41" s="2">
-        <v>1853250</v>
+        <v>2809873</v>
       </c>
       <c r="E41" s="5">
         <v>2016</v>
@@ -2176,17 +2421,17 @@
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
+      <c r="A42" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>6931707</v>
+        <v>10523622</v>
       </c>
       <c r="C42" s="2">
-        <v>96525</v>
+        <v>146077</v>
       </c>
       <c r="D42" s="2">
-        <v>6835183</v>
+        <v>10377546</v>
       </c>
       <c r="E42" s="5">
         <v>2016</v>
@@ -2201,16 +2446,16 @@
     </row>
     <row r="43" spans="1:10" ht="21">
       <c r="A43" s="6" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>9791360</v>
+        <v>14860205</v>
       </c>
       <c r="C43" s="2">
-        <v>2227286</v>
+        <v>3382353</v>
       </c>
       <c r="D43" s="2">
-        <v>7564074</v>
+        <v>11477852</v>
       </c>
       <c r="E43" s="5">
         <v>2016</v>
@@ -2224,14 +2469,14 @@
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
+      <c r="A44" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>13875</v>
+        <v>21072</v>
       </c>
       <c r="C44" s="2">
-        <v>13874</v>
+        <v>21071</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -2248,17 +2493,17 @@
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
+      <c r="A45" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>665871</v>
+        <v>1011198</v>
       </c>
       <c r="C45" s="2">
-        <v>402344</v>
+        <v>611537</v>
       </c>
       <c r="D45" s="2">
-        <v>263527</v>
+        <v>399661</v>
       </c>
       <c r="E45" s="5">
         <v>2016</v>
@@ -2272,17 +2517,17 @@
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="4" t="s">
-        <v>44</v>
+      <c r="A46" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>316508</v>
+        <v>480246</v>
       </c>
       <c r="C46" s="2">
-        <v>312608</v>
+        <v>474331</v>
       </c>
       <c r="D46" s="2">
-        <v>3899</v>
+        <v>5914</v>
       </c>
       <c r="E46" s="5">
         <v>2016</v>
@@ -2296,17 +2541,17 @@
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="21">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
+      <c r="A47" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>76299</v>
+        <v>115809</v>
       </c>
       <c r="C47" s="2">
-        <v>74358</v>
+        <v>112867</v>
       </c>
       <c r="D47" s="2">
-        <v>1941</v>
+        <v>2941</v>
       </c>
       <c r="E47" s="5">
         <v>2016</v>
@@ -2320,17 +2565,17 @@
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="21">
-      <c r="A48" s="4" t="s">
-        <v>46</v>
+      <c r="A48" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>260012</v>
+        <v>394008</v>
       </c>
       <c r="C48" s="2">
-        <v>12764</v>
+        <v>19395</v>
       </c>
       <c r="D48" s="2">
-        <v>247248</v>
+        <v>374613</v>
       </c>
       <c r="E48" s="5">
         <v>2016</v>
@@ -2344,17 +2589,17 @@
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="21">
-      <c r="A49" s="4" t="s">
-        <v>223</v>
+      <c r="A49" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>204327</v>
+        <v>310625</v>
       </c>
       <c r="C49" s="2">
-        <v>126712</v>
+        <v>193015</v>
       </c>
       <c r="D49" s="2">
-        <v>77615</v>
+        <v>117610</v>
       </c>
       <c r="E49" s="5">
         <v>2016</v>
@@ -2368,17 +2613,17 @@
       <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10" ht="21">
-      <c r="A50" s="4" t="s">
-        <v>47</v>
+      <c r="A50" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C50" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E50" s="5">
         <v>2016</v>
@@ -2392,17 +2637,17 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10" ht="21">
-      <c r="A51" s="4" t="s">
-        <v>48</v>
+      <c r="A51" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>8919337</v>
+        <v>13549155</v>
       </c>
       <c r="C51" s="2">
-        <v>5710270</v>
+        <v>8683124</v>
       </c>
       <c r="D51" s="2">
-        <v>3209067</v>
+        <v>4866031</v>
       </c>
       <c r="E51" s="5">
         <v>2016</v>
@@ -2416,17 +2661,17 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="21">
-      <c r="A52" s="4" t="s">
-        <v>49</v>
+      <c r="A52" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>461521</v>
+        <v>702320</v>
       </c>
       <c r="C52" s="2">
-        <v>461358</v>
+        <v>702073</v>
       </c>
       <c r="D52" s="3">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="E52" s="5">
         <v>2016</v>
@@ -2440,17 +2685,17 @@
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="21">
-      <c r="A53" s="4" t="s">
-        <v>50</v>
+      <c r="A53" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1209545</v>
+        <v>1836811</v>
       </c>
       <c r="C53" s="2">
-        <v>140102</v>
+        <v>213032</v>
       </c>
       <c r="D53" s="2">
-        <v>1069443</v>
+        <v>1623779</v>
       </c>
       <c r="E53" s="5">
         <v>2016</v>
@@ -2464,17 +2709,17 @@
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="21">
-      <c r="A54" s="4" t="s">
-        <v>51</v>
+      <c r="A54" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>137501</v>
+        <v>209066</v>
       </c>
       <c r="C54" s="2">
-        <v>135989</v>
+        <v>206773</v>
       </c>
       <c r="D54" s="2">
-        <v>1512</v>
+        <v>2293</v>
       </c>
       <c r="E54" s="5">
         <v>2016</v>
@@ -2488,17 +2733,17 @@
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="21">
-      <c r="A55" s="4" t="s">
-        <v>52</v>
+      <c r="A55" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>15489</v>
+        <v>23520</v>
       </c>
       <c r="C55" s="2">
-        <v>13357</v>
+        <v>20289</v>
       </c>
       <c r="D55" s="2">
-        <v>2132</v>
+        <v>3231</v>
       </c>
       <c r="E55" s="5">
         <v>2016</v>
@@ -2512,17 +2757,17 @@
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="21">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
+      <c r="A56" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>4191</v>
+        <v>6362</v>
       </c>
       <c r="C56" s="2">
-        <v>3800</v>
+        <v>5769</v>
       </c>
       <c r="D56" s="3">
-        <v>392</v>
+        <v>593</v>
       </c>
       <c r="E56" s="5">
         <v>2016</v>
@@ -2536,17 +2781,17 @@
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="21">
-      <c r="A57" s="4" t="s">
-        <v>224</v>
+      <c r="A57" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>103990</v>
+        <v>158038</v>
       </c>
       <c r="C57" s="2">
-        <v>90217</v>
+        <v>137222</v>
       </c>
       <c r="D57" s="2">
-        <v>13773</v>
+        <v>20815</v>
       </c>
       <c r="E57" s="5">
         <v>2016</v>
@@ -2560,17 +2805,17 @@
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="21">
-      <c r="A58" s="4" t="s">
-        <v>54</v>
+      <c r="A58" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>257</v>
+        <v>391</v>
       </c>
       <c r="C58" s="3">
-        <v>257</v>
+        <v>390</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5">
         <v>2016</v>
@@ -2584,17 +2829,17 @@
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="21">
-      <c r="A59" s="4" t="s">
-        <v>55</v>
+      <c r="A59" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>2291</v>
+        <v>3483</v>
       </c>
       <c r="C59" s="2">
-        <v>2245</v>
+        <v>3413</v>
       </c>
       <c r="D59" s="3">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E59" s="5">
         <v>2016</v>
@@ -2608,17 +2853,17 @@
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="21">
-      <c r="A60" s="4" t="s">
-        <v>56</v>
+      <c r="A60" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>1934</v>
+        <v>2924</v>
       </c>
       <c r="C60" s="3">
-        <v>540</v>
+        <v>819</v>
       </c>
       <c r="D60" s="2">
-        <v>1395</v>
+        <v>2105</v>
       </c>
       <c r="E60" s="5">
         <v>2016</v>
@@ -2632,17 +2877,17 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="4" t="s">
-        <v>57</v>
+      <c r="A61" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="3">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C61" s="3">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="5">
         <v>2016</v>
@@ -2656,14 +2901,14 @@
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="4" t="s">
-        <v>58</v>
+      <c r="A62" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>6340</v>
+        <v>9671</v>
       </c>
       <c r="C62" s="2">
-        <v>6340</v>
+        <v>9671</v>
       </c>
       <c r="D62" s="3">
         <v>1</v>
@@ -2680,14 +2925,14 @@
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="21">
-      <c r="A63" s="4" t="s">
-        <v>59</v>
+      <c r="A63" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>1430</v>
+        <v>2168</v>
       </c>
       <c r="C63" s="2">
-        <v>1430</v>
+        <v>2168</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2704,17 +2949,17 @@
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="21">
-      <c r="A64" s="4" t="s">
-        <v>60</v>
+      <c r="A64" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>195891</v>
+        <v>296957</v>
       </c>
       <c r="C64" s="2">
-        <v>44771</v>
+        <v>68061</v>
       </c>
       <c r="D64" s="2">
-        <v>151119</v>
+        <v>228896</v>
       </c>
       <c r="E64" s="5">
         <v>2016</v>
@@ -2728,17 +2973,17 @@
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="4" t="s">
-        <v>61</v>
+      <c r="A65" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>152210</v>
+        <v>231425</v>
       </c>
       <c r="C65" s="2">
-        <v>152150</v>
+        <v>231335</v>
       </c>
       <c r="D65" s="3">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E65" s="5">
         <v>2016</v>
@@ -2752,17 +2997,17 @@
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="21">
-      <c r="A66" s="4" t="s">
-        <v>62</v>
+      <c r="A66" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>651499</v>
+        <v>990627</v>
       </c>
       <c r="C66" s="2">
-        <v>638462</v>
+        <v>970872</v>
       </c>
       <c r="D66" s="2">
-        <v>13037</v>
+        <v>19754</v>
       </c>
       <c r="E66" s="5">
         <v>2016</v>
@@ -2776,17 +3021,17 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="4" t="s">
-        <v>63</v>
+      <c r="A67" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>52636</v>
+        <v>79714</v>
       </c>
       <c r="C67" s="2">
-        <v>9937</v>
+        <v>15096</v>
       </c>
       <c r="D67" s="2">
-        <v>42699</v>
+        <v>64617</v>
       </c>
       <c r="E67" s="5">
         <v>2016</v>
@@ -2800,17 +3045,17 @@
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="4" t="s">
-        <v>64</v>
+      <c r="A68" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>209889</v>
+        <v>318959</v>
       </c>
       <c r="C68" s="2">
-        <v>186777</v>
+        <v>283929</v>
       </c>
       <c r="D68" s="2">
-        <v>23112</v>
+        <v>35030</v>
       </c>
       <c r="E68" s="5">
         <v>2016</v>
@@ -2824,17 +3069,17 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="4" t="s">
-        <v>65</v>
+      <c r="A69" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>69133</v>
+        <v>104928</v>
       </c>
       <c r="C69" s="2">
-        <v>22590</v>
+        <v>34378</v>
       </c>
       <c r="D69" s="2">
-        <v>46543</v>
+        <v>70550</v>
       </c>
       <c r="E69" s="5">
         <v>2016</v>
@@ -2848,17 +3093,17 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="4" t="s">
-        <v>66</v>
+      <c r="A70" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>30102</v>
+        <v>45740</v>
       </c>
       <c r="C70" s="2">
-        <v>24280</v>
+        <v>36906</v>
       </c>
       <c r="D70" s="2">
-        <v>5822</v>
+        <v>8833</v>
       </c>
       <c r="E70" s="5">
         <v>2016</v>
@@ -2872,17 +3117,17 @@
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="4" t="s">
-        <v>67</v>
+      <c r="A71" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>322277</v>
+        <v>490318</v>
       </c>
       <c r="C71" s="2">
-        <v>269323</v>
+        <v>409467</v>
       </c>
       <c r="D71" s="2">
-        <v>52954</v>
+        <v>80851</v>
       </c>
       <c r="E71" s="5">
         <v>2016</v>
@@ -2896,17 +3141,17 @@
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="4" t="s">
-        <v>68</v>
+      <c r="A72" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>98528</v>
+        <v>149595</v>
       </c>
       <c r="C72" s="2">
-        <v>66864</v>
+        <v>101728</v>
       </c>
       <c r="D72" s="2">
-        <v>31664</v>
+        <v>47867</v>
       </c>
       <c r="E72" s="5">
         <v>2016</v>
@@ -2920,14 +3165,14 @@
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="4" t="s">
-        <v>69</v>
+      <c r="A73" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B73" s="2">
-        <v>1388</v>
+        <v>2110</v>
       </c>
       <c r="C73" s="2">
-        <v>1388</v>
+        <v>2110</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -2944,17 +3189,17 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="4" t="s">
-        <v>70</v>
+      <c r="A74" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>92028</v>
+        <v>139853</v>
       </c>
       <c r="C74" s="2">
-        <v>87410</v>
+        <v>132850</v>
       </c>
       <c r="D74" s="2">
-        <v>4618</v>
+        <v>7003</v>
       </c>
       <c r="E74" s="5">
         <v>2016</v>
@@ -2968,17 +3213,17 @@
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="4" t="s">
-        <v>71</v>
+      <c r="A75" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>361849</v>
+        <v>549967</v>
       </c>
       <c r="C75" s="2">
-        <v>357799</v>
+        <v>543812</v>
       </c>
       <c r="D75" s="2">
-        <v>4050</v>
+        <v>6155</v>
       </c>
       <c r="E75" s="5">
         <v>2016</v>
@@ -2992,17 +3237,17 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="21">
-      <c r="A76" s="4" t="s">
-        <v>72</v>
+      <c r="A76" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>150432</v>
+        <v>229101</v>
       </c>
       <c r="C76" s="2">
-        <v>146325</v>
+        <v>222852</v>
       </c>
       <c r="D76" s="2">
-        <v>4107</v>
+        <v>6249</v>
       </c>
       <c r="E76" s="5">
         <v>2016</v>
@@ -3016,17 +3261,17 @@
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="21">
-      <c r="A77" s="4" t="s">
-        <v>73</v>
+      <c r="A77" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>113379</v>
+        <v>172165</v>
       </c>
       <c r="C77" s="2">
-        <v>58376</v>
+        <v>88830</v>
       </c>
       <c r="D77" s="2">
-        <v>55002</v>
+        <v>83336</v>
       </c>
       <c r="E77" s="5">
         <v>2016</v>
@@ -3040,17 +3285,17 @@
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="21">
-      <c r="A78" s="4" t="s">
-        <v>74</v>
+      <c r="A78" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>62868</v>
+        <v>95584</v>
       </c>
       <c r="C78" s="2">
-        <v>55169</v>
+        <v>83909</v>
       </c>
       <c r="D78" s="2">
-        <v>7699</v>
+        <v>11675</v>
       </c>
       <c r="E78" s="5">
         <v>2016</v>
@@ -3064,17 +3309,17 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="21">
-      <c r="A79" s="4" t="s">
-        <v>75</v>
+      <c r="A79" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>15323</v>
+        <v>23304</v>
       </c>
       <c r="C79" s="2">
-        <v>15030</v>
+        <v>22859</v>
       </c>
       <c r="D79" s="3">
-        <v>294</v>
+        <v>445</v>
       </c>
       <c r="E79" s="5">
         <v>2016</v>
@@ -3088,17 +3333,17 @@
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="21">
-      <c r="A80" s="4" t="s">
-        <v>225</v>
+      <c r="A80" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>33521</v>
+        <v>50874</v>
       </c>
       <c r="C80" s="2">
-        <v>22399</v>
+        <v>34004</v>
       </c>
       <c r="D80" s="2">
-        <v>11122</v>
+        <v>16870</v>
       </c>
       <c r="E80" s="5">
         <v>2016</v>
@@ -3112,17 +3357,17 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="4" t="s">
-        <v>76</v>
+      <c r="A81" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>93860</v>
+        <v>142778</v>
       </c>
       <c r="C81" s="2">
-        <v>47107</v>
+        <v>71671</v>
       </c>
       <c r="D81" s="2">
-        <v>46753</v>
+        <v>71107</v>
       </c>
       <c r="E81" s="5">
         <v>2016</v>
@@ -3136,17 +3381,17 @@
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="4" t="s">
-        <v>77</v>
+      <c r="A82" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>42335</v>
+        <v>64367</v>
       </c>
       <c r="C82" s="2">
-        <v>41001</v>
+        <v>62347</v>
       </c>
       <c r="D82" s="2">
-        <v>1334</v>
+        <v>2020</v>
       </c>
       <c r="E82" s="5">
         <v>2016</v>
@@ -3160,17 +3405,17 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="4" t="s">
-        <v>78</v>
+      <c r="A83" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>246222</v>
+        <v>374283</v>
       </c>
       <c r="C83" s="2">
-        <v>212131</v>
+        <v>322645</v>
       </c>
       <c r="D83" s="2">
-        <v>34091</v>
+        <v>51638</v>
       </c>
       <c r="E83" s="5">
         <v>2016</v>
@@ -3184,17 +3429,17 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="21">
-      <c r="A84" s="4" t="s">
-        <v>79</v>
+      <c r="A84" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>91840</v>
+        <v>139594</v>
       </c>
       <c r="C84" s="2">
-        <v>70164</v>
+        <v>106703</v>
       </c>
       <c r="D84" s="2">
-        <v>21676</v>
+        <v>32891</v>
       </c>
       <c r="E84" s="5">
         <v>2016</v>
@@ -3208,17 +3453,17 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="21">
-      <c r="A85" s="4" t="s">
-        <v>80</v>
+      <c r="A85" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>27157</v>
+        <v>41333</v>
       </c>
       <c r="C85" s="2">
-        <v>18170</v>
+        <v>27713</v>
       </c>
       <c r="D85" s="2">
-        <v>8988</v>
+        <v>13620</v>
       </c>
       <c r="E85" s="5">
         <v>2016</v>
@@ -3232,17 +3477,17 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="21">
-      <c r="A86" s="4" t="s">
-        <v>81</v>
+      <c r="A86" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>12680</v>
+        <v>19244</v>
       </c>
       <c r="C86" s="2">
-        <v>7123</v>
+        <v>10819</v>
       </c>
       <c r="D86" s="2">
-        <v>5557</v>
+        <v>8425</v>
       </c>
       <c r="E86" s="5">
         <v>2016</v>
@@ -3256,17 +3501,17 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="21">
-      <c r="A87" s="4" t="s">
-        <v>82</v>
+      <c r="A87" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>653482</v>
+        <v>993231</v>
       </c>
       <c r="C87" s="2">
-        <v>608833</v>
+        <v>925531</v>
       </c>
       <c r="D87" s="2">
-        <v>44649</v>
+        <v>67700</v>
       </c>
       <c r="E87" s="5">
         <v>2016</v>
@@ -3280,14 +3525,14 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="21">
-      <c r="A88" s="4" t="s">
-        <v>83</v>
+      <c r="A88" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>8961</v>
+        <v>13606</v>
       </c>
       <c r="C88" s="2">
-        <v>8961</v>
+        <v>13606</v>
       </c>
       <c r="D88" s="3">
         <v>0</v>
@@ -3304,17 +3549,17 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="21">
-      <c r="A89" s="4" t="s">
-        <v>84</v>
+      <c r="A89" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>8158</v>
+        <v>12403</v>
       </c>
       <c r="C89" s="2">
-        <v>7248</v>
-      </c>
-      <c r="D89" s="3">
-        <v>910</v>
+        <v>11024</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1379</v>
       </c>
       <c r="E89" s="5">
         <v>2016</v>
@@ -3328,14 +3573,14 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="21">
-      <c r="A90" s="4" t="s">
-        <v>85</v>
+      <c r="A90" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="C90" s="3">
-        <v>212</v>
+        <v>323</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -3352,17 +3597,17 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="21">
-      <c r="A91" s="4" t="s">
-        <v>86</v>
+      <c r="A91" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>148509</v>
+        <v>225766</v>
       </c>
       <c r="C91" s="2">
-        <v>141842</v>
+        <v>215636</v>
       </c>
       <c r="D91" s="2">
-        <v>6667</v>
+        <v>10130</v>
       </c>
       <c r="E91" s="5">
         <v>2016</v>
@@ -3376,17 +3621,17 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="21">
-      <c r="A92" s="4" t="s">
-        <v>87</v>
+      <c r="A92" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>6499</v>
+        <v>9824</v>
       </c>
       <c r="C92" s="2">
-        <v>6499</v>
+        <v>9824</v>
       </c>
       <c r="D92" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5">
         <v>2016</v>
@@ -3400,17 +3645,17 @@
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="21">
-      <c r="A93" s="4" t="s">
-        <v>88</v>
+      <c r="A93" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>30701</v>
+        <v>46638</v>
       </c>
       <c r="C93" s="2">
-        <v>11862</v>
+        <v>18050</v>
       </c>
       <c r="D93" s="2">
-        <v>18839</v>
+        <v>28588</v>
       </c>
       <c r="E93" s="5">
         <v>2016</v>
@@ -3424,17 +3669,17 @@
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="4" t="s">
-        <v>89</v>
+      <c r="A94" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>24884</v>
+        <v>37856</v>
       </c>
       <c r="C94" s="2">
-        <v>24802</v>
+        <v>37732</v>
       </c>
       <c r="D94" s="3">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="E94" s="5">
         <v>2016</v>
@@ -3448,17 +3693,17 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="21">
-      <c r="A95" s="4" t="s">
-        <v>226</v>
+      <c r="A95" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>1833554</v>
+        <v>2781164</v>
       </c>
       <c r="C95" s="2">
-        <v>741772</v>
+        <v>1127359</v>
       </c>
       <c r="D95" s="2">
-        <v>1091781</v>
+        <v>1653805</v>
       </c>
       <c r="E95" s="5">
         <v>2016</v>
@@ -3472,17 +3717,17 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="21">
-      <c r="A96" s="4" t="s">
-        <v>90</v>
+      <c r="A96" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B96" s="3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C96" s="3">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="5">
         <v>2016</v>
@@ -3496,17 +3741,17 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="21">
-      <c r="A97" s="4" t="s">
-        <v>91</v>
+      <c r="A97" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>171352</v>
+        <v>260148</v>
       </c>
       <c r="C97" s="2">
-        <v>126992</v>
+        <v>192964</v>
       </c>
       <c r="D97" s="2">
-        <v>44360</v>
+        <v>67184</v>
       </c>
       <c r="E97" s="5">
         <v>2016</v>
@@ -3520,17 +3765,17 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="21">
-      <c r="A98" s="4" t="s">
-        <v>92</v>
+      <c r="A98" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>287628</v>
+        <v>437944</v>
       </c>
       <c r="C98" s="2">
-        <v>272002</v>
+        <v>414259</v>
       </c>
       <c r="D98" s="2">
-        <v>15626</v>
+        <v>23685</v>
       </c>
       <c r="E98" s="5">
         <v>2016</v>
@@ -3544,17 +3789,17 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="21">
-      <c r="A99" s="4" t="s">
-        <v>93</v>
+      <c r="A99" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>115096</v>
+        <v>174901</v>
       </c>
       <c r="C99" s="2">
-        <v>108814</v>
+        <v>165393</v>
       </c>
       <c r="D99" s="2">
-        <v>6282</v>
+        <v>9508</v>
       </c>
       <c r="E99" s="5">
         <v>2016</v>
@@ -3568,17 +3813,17 @@
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="21">
-      <c r="A100" s="4" t="s">
-        <v>94</v>
+      <c r="A100" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>83008</v>
+        <v>126182</v>
       </c>
       <c r="C100" s="2">
-        <v>75143</v>
+        <v>114311</v>
       </c>
       <c r="D100" s="2">
-        <v>7866</v>
+        <v>11871</v>
       </c>
       <c r="E100" s="5">
         <v>2016</v>
@@ -3592,17 +3837,17 @@
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="21">
-      <c r="A101" s="4" t="s">
-        <v>95</v>
+      <c r="A101" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>39927</v>
+        <v>60654</v>
       </c>
       <c r="C101" s="2">
-        <v>37988</v>
+        <v>57717</v>
       </c>
       <c r="D101" s="2">
-        <v>1939</v>
+        <v>2937</v>
       </c>
       <c r="E101" s="5">
         <v>2016</v>
@@ -3616,17 +3861,17 @@
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="21">
-      <c r="A102" s="4" t="s">
-        <v>96</v>
+      <c r="A102" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>9015</v>
+        <v>13710</v>
       </c>
       <c r="C102" s="2">
-        <v>8946</v>
+        <v>13605</v>
       </c>
       <c r="D102" s="3">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E102" s="5">
         <v>2016</v>
@@ -3640,17 +3885,17 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="21">
-      <c r="A103" s="4" t="s">
-        <v>97</v>
+      <c r="A103" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>166771</v>
+        <v>252916</v>
       </c>
       <c r="C103" s="2">
-        <v>68504</v>
+        <v>104088</v>
       </c>
       <c r="D103" s="2">
-        <v>98267</v>
+        <v>148828</v>
       </c>
       <c r="E103" s="5">
         <v>2016</v>
@@ -3664,17 +3909,17 @@
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="21">
-      <c r="A104" s="4" t="s">
-        <v>227</v>
+      <c r="A104" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>129524</v>
+        <v>196455</v>
       </c>
       <c r="C104" s="2">
-        <v>22135</v>
+        <v>33661</v>
       </c>
       <c r="D104" s="2">
-        <v>107389</v>
+        <v>162794</v>
       </c>
       <c r="E104" s="5">
         <v>2016</v>
@@ -3688,17 +3933,17 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="21">
-      <c r="A105" s="4" t="s">
-        <v>98</v>
+      <c r="A105" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>24687</v>
+        <v>37438</v>
       </c>
       <c r="C105" s="2">
-        <v>16519</v>
+        <v>25062</v>
       </c>
       <c r="D105" s="2">
-        <v>8169</v>
+        <v>12376</v>
       </c>
       <c r="E105" s="5">
         <v>2016</v>
@@ -3712,17 +3957,17 @@
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="21">
-      <c r="A106" s="4" t="s">
-        <v>228</v>
+      <c r="A106" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>2793</v>
+        <v>4245</v>
       </c>
       <c r="C106" s="2">
-        <v>2360</v>
+        <v>3588</v>
       </c>
       <c r="D106" s="3">
-        <v>434</v>
+        <v>657</v>
       </c>
       <c r="E106" s="5">
         <v>2016</v>
@@ -3736,17 +3981,17 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="4" t="s">
-        <v>99</v>
+      <c r="A107" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B107" s="3">
-        <v>615</v>
+        <v>937</v>
       </c>
       <c r="C107" s="3">
-        <v>615</v>
+        <v>937</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="5">
         <v>2016</v>
@@ -3760,17 +4005,17 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="21">
-      <c r="A108" s="4" t="s">
-        <v>100</v>
+      <c r="A108" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>3279</v>
+        <v>4984</v>
       </c>
       <c r="C108" s="2">
-        <v>3272</v>
+        <v>4974</v>
       </c>
       <c r="D108" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E108" s="5">
         <v>2016</v>
@@ -3784,14 +4029,14 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="4" t="s">
-        <v>101</v>
+      <c r="A109" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>2159</v>
+        <v>3297</v>
       </c>
       <c r="C109" s="2">
-        <v>2159</v>
+        <v>3297</v>
       </c>
       <c r="D109" s="3">
         <v>0</v>
@@ -3808,17 +4053,17 @@
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="4" t="s">
-        <v>102</v>
+      <c r="A110" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>1018</v>
+        <v>1547</v>
       </c>
       <c r="C110" s="2">
-        <v>1018</v>
+        <v>1547</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" s="5">
         <v>2016</v>
@@ -3832,17 +4077,17 @@
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="4" t="s">
-        <v>103</v>
+      <c r="A111" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>95770</v>
+        <v>145115</v>
       </c>
       <c r="C111" s="2">
-        <v>1195</v>
+        <v>1821</v>
       </c>
       <c r="D111" s="2">
-        <v>94575</v>
+        <v>143293</v>
       </c>
       <c r="E111" s="5">
         <v>2016</v>
@@ -3856,17 +4101,17 @@
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="21">
-      <c r="A112" s="4" t="s">
-        <v>104</v>
+      <c r="A112" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C112" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" s="5">
         <v>2016</v>
@@ -3880,17 +4125,17 @@
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="4" t="s">
-        <v>105</v>
+      <c r="A113" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1238441</v>
+        <v>1878527</v>
       </c>
       <c r="C113" s="2">
-        <v>864167</v>
+        <v>1312742</v>
       </c>
       <c r="D113" s="2">
-        <v>374274</v>
+        <v>565785</v>
       </c>
       <c r="E113" s="5">
         <v>2016</v>
@@ -3904,17 +4149,17 @@
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="4" t="s">
-        <v>106</v>
+      <c r="A114" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>652142</v>
+        <v>988336</v>
       </c>
       <c r="C114" s="2">
-        <v>365108</v>
+        <v>554541</v>
       </c>
       <c r="D114" s="2">
-        <v>287035</v>
+        <v>433795</v>
       </c>
       <c r="E114" s="5">
         <v>2016</v>
@@ -3928,17 +4173,17 @@
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="4" t="s">
-        <v>107</v>
+      <c r="A115" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4518954</v>
+        <v>6855806</v>
       </c>
       <c r="C115" s="2">
-        <v>3317360</v>
+        <v>5039539</v>
       </c>
       <c r="D115" s="2">
-        <v>1201594</v>
+        <v>1816267</v>
       </c>
       <c r="E115" s="5">
         <v>2016</v>
@@ -3952,17 +4197,17 @@
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="4" t="s">
-        <v>108</v>
+      <c r="A116" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>8680060</v>
+        <v>13137143</v>
       </c>
       <c r="C116" s="2">
-        <v>3737242</v>
+        <v>5673497</v>
       </c>
       <c r="D116" s="2">
-        <v>4942818</v>
+        <v>7463646</v>
       </c>
       <c r="E116" s="5">
         <v>2016</v>
@@ -3976,17 +4221,17 @@
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="4" t="s">
-        <v>109</v>
+      <c r="A117" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>2759053</v>
+        <v>4181148</v>
       </c>
       <c r="C117" s="2">
-        <v>1483882</v>
+        <v>2252493</v>
       </c>
       <c r="D117" s="2">
-        <v>1275171</v>
+        <v>1928655</v>
       </c>
       <c r="E117" s="5">
         <v>2016</v>
@@ -4000,17 +4245,17 @@
       <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="4" t="s">
-        <v>110</v>
+      <c r="A118" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>433546</v>
+        <v>657385</v>
       </c>
       <c r="C118" s="2">
-        <v>147567</v>
+        <v>224331</v>
       </c>
       <c r="D118" s="2">
-        <v>285979</v>
+        <v>433054</v>
       </c>
       <c r="E118" s="5">
         <v>2016</v>
@@ -4024,17 +4269,17 @@
       <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10" ht="21">
-      <c r="A119" s="4" t="s">
-        <v>111</v>
+      <c r="A119" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>2375521</v>
+        <v>3597163</v>
       </c>
       <c r="C119" s="2">
-        <v>1408766</v>
+        <v>2138457</v>
       </c>
       <c r="D119" s="2">
-        <v>966755</v>
+        <v>1458706</v>
       </c>
       <c r="E119" s="5">
         <v>2016</v>
@@ -4048,17 +4293,17 @@
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="21">
-      <c r="A120" s="4" t="s">
-        <v>112</v>
+      <c r="A120" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>92403</v>
+        <v>140128</v>
       </c>
       <c r="C120" s="2">
-        <v>74469</v>
+        <v>113083</v>
       </c>
       <c r="D120" s="2">
-        <v>17934</v>
+        <v>27045</v>
       </c>
       <c r="E120" s="5">
         <v>2016</v>
@@ -4072,17 +4317,17 @@
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="21">
-      <c r="A121" s="4" t="s">
-        <v>113</v>
+      <c r="A121" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>3751618</v>
+        <v>5694842</v>
       </c>
       <c r="C121" s="2">
-        <v>3280970</v>
+        <v>4983873</v>
       </c>
       <c r="D121" s="2">
-        <v>470649</v>
+        <v>710969</v>
       </c>
       <c r="E121" s="5">
         <v>2016</v>
@@ -4096,17 +4341,17 @@
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="4" t="s">
-        <v>114</v>
+      <c r="A122" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>246562</v>
+        <v>374764</v>
       </c>
       <c r="C122" s="2">
-        <v>237442</v>
+        <v>360960</v>
       </c>
       <c r="D122" s="2">
-        <v>9120</v>
+        <v>13803</v>
       </c>
       <c r="E122" s="5">
         <v>2016</v>
@@ -4120,17 +4365,17 @@
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="4" t="s">
-        <v>115</v>
+      <c r="A123" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>332578</v>
+        <v>505447</v>
       </c>
       <c r="C123" s="2">
-        <v>239556</v>
+        <v>365072</v>
       </c>
       <c r="D123" s="2">
-        <v>93022</v>
+        <v>140374</v>
       </c>
       <c r="E123" s="5">
         <v>2016</v>
@@ -4144,17 +4389,17 @@
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="21">
-      <c r="A124" s="4" t="s">
-        <v>116</v>
+      <c r="A124" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>1651069</v>
+        <v>2503867</v>
       </c>
       <c r="C124" s="2">
-        <v>1271863</v>
+        <v>1931915</v>
       </c>
       <c r="D124" s="2">
-        <v>379206</v>
+        <v>571952</v>
       </c>
       <c r="E124" s="5">
         <v>2016</v>
@@ -4168,17 +4413,17 @@
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="21">
-      <c r="A125" s="4" t="s">
-        <v>117</v>
+      <c r="A125" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>36856</v>
+        <v>55979</v>
       </c>
       <c r="C125" s="2">
-        <v>28914</v>
+        <v>43945</v>
       </c>
       <c r="D125" s="2">
-        <v>7941</v>
+        <v>12035</v>
       </c>
       <c r="E125" s="5">
         <v>2016</v>
@@ -4192,17 +4437,17 @@
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="21">
-      <c r="A126" s="4" t="s">
-        <v>229</v>
+      <c r="A126" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="C126" s="3">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="D126" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E126" s="5">
         <v>2016</v>
@@ -4216,17 +4461,17 @@
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="4" t="s">
-        <v>118</v>
+      <c r="A127" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>439193</v>
+        <v>663908</v>
       </c>
       <c r="C127" s="2">
-        <v>137624</v>
+        <v>208607</v>
       </c>
       <c r="D127" s="2">
-        <v>301570</v>
+        <v>455301</v>
       </c>
       <c r="E127" s="5">
         <v>2016</v>
@@ -4240,17 +4485,17 @@
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="4" t="s">
-        <v>119</v>
+      <c r="A128" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>83575</v>
+        <v>126785</v>
       </c>
       <c r="C128" s="2">
-        <v>64851</v>
+        <v>98482</v>
       </c>
       <c r="D128" s="2">
-        <v>18724</v>
+        <v>28303</v>
       </c>
       <c r="E128" s="5">
         <v>2016</v>
@@ -4264,17 +4509,17 @@
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="4" t="s">
-        <v>120</v>
+      <c r="A129" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>403400</v>
+        <v>610954</v>
       </c>
       <c r="C129" s="2">
-        <v>177388</v>
+        <v>269314</v>
       </c>
       <c r="D129" s="2">
-        <v>226012</v>
+        <v>341641</v>
       </c>
       <c r="E129" s="5">
         <v>2016</v>
@@ -4288,14 +4533,14 @@
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" ht="21">
-      <c r="A130" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B130" s="3">
-        <v>788</v>
-      </c>
-      <c r="C130" s="3">
-        <v>787</v>
+      <c r="A130" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1195</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1194</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -4312,17 +4557,17 @@
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="4" t="s">
-        <v>122</v>
+      <c r="A131" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>499627</v>
+        <v>757037</v>
       </c>
       <c r="C131" s="2">
-        <v>318381</v>
+        <v>483397</v>
       </c>
       <c r="D131" s="2">
-        <v>181247</v>
+        <v>273641</v>
       </c>
       <c r="E131" s="5">
         <v>2016</v>
@@ -4336,17 +4581,17 @@
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="4" t="s">
-        <v>123</v>
+      <c r="A132" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>14985</v>
+        <v>22750</v>
       </c>
       <c r="C132" s="2">
-        <v>9164</v>
+        <v>13898</v>
       </c>
       <c r="D132" s="2">
-        <v>5820</v>
+        <v>8852</v>
       </c>
       <c r="E132" s="5">
         <v>2016</v>
@@ -4360,17 +4605,17 @@
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="21">
-      <c r="A133" s="4" t="s">
-        <v>124</v>
+      <c r="A133" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>7977</v>
+        <v>12055</v>
       </c>
       <c r="C133" s="2">
-        <v>2618</v>
+        <v>3965</v>
       </c>
       <c r="D133" s="2">
-        <v>5359</v>
+        <v>8089</v>
       </c>
       <c r="E133" s="5">
         <v>2016</v>
@@ -4384,17 +4629,17 @@
       <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10" ht="21">
-      <c r="A134" s="4" t="s">
-        <v>125</v>
+      <c r="A134" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>99917</v>
+        <v>152123</v>
       </c>
       <c r="C134" s="2">
-        <v>78656</v>
+        <v>119867</v>
       </c>
       <c r="D134" s="2">
-        <v>21261</v>
+        <v>32256</v>
       </c>
       <c r="E134" s="5">
         <v>2016</v>
@@ -4408,17 +4653,17 @@
       <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10" ht="21">
-      <c r="A135" s="4" t="s">
-        <v>126</v>
+      <c r="A135" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B135" s="2">
-        <v>1685</v>
+        <v>2554</v>
       </c>
       <c r="C135" s="2">
-        <v>1296</v>
+        <v>1967</v>
       </c>
       <c r="D135" s="3">
-        <v>389</v>
+        <v>587</v>
       </c>
       <c r="E135" s="5">
         <v>2016</v>
@@ -4432,17 +4677,17 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="21">
-      <c r="A136" s="4" t="s">
-        <v>127</v>
+      <c r="A136" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>318662</v>
+        <v>483284</v>
       </c>
       <c r="C136" s="2">
-        <v>158828</v>
+        <v>241158</v>
       </c>
       <c r="D136" s="2">
-        <v>159834</v>
+        <v>242126</v>
       </c>
       <c r="E136" s="5">
         <v>2016</v>
@@ -4456,17 +4701,17 @@
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" ht="21">
-      <c r="A137" s="4" t="s">
-        <v>128</v>
+      <c r="A137" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>995514</v>
+        <v>1510780</v>
       </c>
       <c r="C137" s="2">
-        <v>863428</v>
+        <v>1311238</v>
       </c>
       <c r="D137" s="2">
-        <v>132087</v>
+        <v>199542</v>
       </c>
       <c r="E137" s="5">
         <v>2016</v>
@@ -4480,17 +4725,17 @@
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="4" t="s">
-        <v>129</v>
+      <c r="A138" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>268118</v>
+        <v>406280</v>
       </c>
       <c r="C138" s="2">
-        <v>186034</v>
+        <v>282442</v>
       </c>
       <c r="D138" s="2">
-        <v>82084</v>
+        <v>123838</v>
       </c>
       <c r="E138" s="5">
         <v>2016</v>
@@ -4504,17 +4749,17 @@
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="4" t="s">
-        <v>130</v>
+      <c r="A139" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="C139" s="3">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="D139" s="3">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="E139" s="5">
         <v>2016</v>
@@ -4528,17 +4773,17 @@
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" ht="21">
-      <c r="A140" s="4" t="s">
-        <v>131</v>
+      <c r="A140" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>741307</v>
+        <v>1122270</v>
       </c>
       <c r="C140" s="2">
-        <v>405931</v>
+        <v>616225</v>
       </c>
       <c r="D140" s="2">
-        <v>335376</v>
+        <v>506046</v>
       </c>
       <c r="E140" s="5">
         <v>2016</v>
@@ -4552,17 +4797,17 @@
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="4" t="s">
-        <v>132</v>
+      <c r="A141" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>2659651</v>
+        <v>4025391</v>
       </c>
       <c r="C141" s="2">
-        <v>167194</v>
+        <v>253661</v>
       </c>
       <c r="D141" s="2">
-        <v>2492457</v>
+        <v>3771730</v>
       </c>
       <c r="E141" s="5">
         <v>2016</v>
@@ -4576,17 +4821,17 @@
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" ht="21">
-      <c r="A142" s="4" t="s">
-        <v>133</v>
+      <c r="A142" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>65397</v>
+        <v>99126</v>
       </c>
       <c r="C142" s="2">
-        <v>48234</v>
+        <v>73228</v>
       </c>
       <c r="D142" s="2">
-        <v>17163</v>
+        <v>25898</v>
       </c>
       <c r="E142" s="5">
         <v>2016</v>
@@ -4600,17 +4845,17 @@
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" ht="21">
-      <c r="A143" s="4" t="s">
-        <v>134</v>
+      <c r="A143" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>70924</v>
+        <v>107666</v>
       </c>
       <c r="C143" s="2">
-        <v>63495</v>
+        <v>96462</v>
       </c>
       <c r="D143" s="2">
-        <v>7429</v>
+        <v>11204</v>
       </c>
       <c r="E143" s="5">
         <v>2016</v>
@@ -4624,17 +4869,17 @@
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" ht="21">
-      <c r="A144" s="4" t="s">
-        <v>230</v>
+      <c r="A144" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>86865</v>
+        <v>131854</v>
       </c>
       <c r="C144" s="2">
-        <v>74470</v>
+        <v>113113</v>
       </c>
       <c r="D144" s="2">
-        <v>12396</v>
+        <v>18740</v>
       </c>
       <c r="E144" s="5">
         <v>2016</v>
@@ -4648,17 +4893,17 @@
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" ht="21">
-      <c r="A145" s="4" t="s">
-        <v>135</v>
+      <c r="A145" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>47926</v>
+        <v>72864</v>
       </c>
       <c r="C145" s="2">
-        <v>46750</v>
+        <v>71083</v>
       </c>
       <c r="D145" s="2">
-        <v>1176</v>
+        <v>1781</v>
       </c>
       <c r="E145" s="5">
         <v>2016</v>
@@ -4672,17 +4917,17 @@
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" ht="21">
-      <c r="A146" s="4" t="s">
-        <v>136</v>
+      <c r="A146" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>20026</v>
+        <v>30368</v>
       </c>
       <c r="C146" s="2">
-        <v>7426</v>
+        <v>11281</v>
       </c>
       <c r="D146" s="2">
-        <v>12600</v>
+        <v>19088</v>
       </c>
       <c r="E146" s="5">
         <v>2016</v>
@@ -4696,17 +4941,17 @@
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" ht="21">
-      <c r="A147" s="4" t="s">
-        <v>137</v>
+      <c r="A147" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>54233</v>
+        <v>82226</v>
       </c>
       <c r="C147" s="2">
-        <v>16620</v>
+        <v>25234</v>
       </c>
       <c r="D147" s="2">
-        <v>37613</v>
+        <v>56992</v>
       </c>
       <c r="E147" s="5">
         <v>2016</v>
@@ -4720,17 +4965,17 @@
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" ht="21">
-      <c r="A148" s="4" t="s">
-        <v>138</v>
+      <c r="A148" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>72432</v>
+        <v>110106</v>
       </c>
       <c r="C148" s="2">
-        <v>59768</v>
+        <v>90919</v>
       </c>
       <c r="D148" s="2">
-        <v>12664</v>
+        <v>19187</v>
       </c>
       <c r="E148" s="5">
         <v>2016</v>
@@ -4744,17 +4989,17 @@
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" ht="21">
-      <c r="A149" s="4" t="s">
-        <v>139</v>
+      <c r="A149" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>5216</v>
+        <v>7915</v>
       </c>
       <c r="C149" s="2">
-        <v>4105</v>
+        <v>6237</v>
       </c>
       <c r="D149" s="2">
-        <v>1111</v>
+        <v>1678</v>
       </c>
       <c r="E149" s="5">
         <v>2016</v>
@@ -4768,17 +5013,17 @@
       <c r="J149" s="3"/>
     </row>
     <row r="150" spans="1:10" ht="21">
-      <c r="A150" s="4" t="s">
-        <v>140</v>
+      <c r="A150" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>3726460</v>
+        <v>5655115</v>
       </c>
       <c r="C150" s="2">
-        <v>2165160</v>
+        <v>3288798</v>
       </c>
       <c r="D150" s="2">
-        <v>1561299</v>
+        <v>2366317</v>
       </c>
       <c r="E150" s="5">
         <v>2016</v>
@@ -4792,17 +5037,17 @@
       <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10" ht="21">
-      <c r="A151" s="4" t="s">
-        <v>231</v>
+      <c r="A151" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>329985</v>
+        <v>501372</v>
       </c>
       <c r="C151" s="2">
-        <v>260513</v>
+        <v>395713</v>
       </c>
       <c r="D151" s="2">
-        <v>69472</v>
+        <v>105660</v>
       </c>
       <c r="E151" s="5">
         <v>2016</v>
@@ -4816,17 +5061,17 @@
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" ht="21">
-      <c r="A152" s="4" t="s">
-        <v>232</v>
+      <c r="A152" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>148972</v>
+        <v>226028</v>
       </c>
       <c r="C152" s="2">
-        <v>126139</v>
+        <v>191577</v>
       </c>
       <c r="D152" s="2">
-        <v>22834</v>
+        <v>34450</v>
       </c>
       <c r="E152" s="5">
         <v>2016</v>
@@ -4840,17 +5085,17 @@
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" ht="21">
-      <c r="A153" s="4" t="s">
-        <v>141</v>
+      <c r="A153" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>89659</v>
+        <v>136046</v>
       </c>
       <c r="C153" s="2">
-        <v>64471</v>
+        <v>97928</v>
       </c>
       <c r="D153" s="2">
-        <v>25188</v>
+        <v>38118</v>
       </c>
       <c r="E153" s="5">
         <v>2016</v>
@@ -4864,17 +5109,17 @@
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" ht="21">
-      <c r="A154" s="4" t="s">
-        <v>142</v>
+      <c r="A154" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>562403</v>
+        <v>852698</v>
       </c>
       <c r="C154" s="2">
-        <v>404039</v>
+        <v>613837</v>
       </c>
       <c r="D154" s="2">
-        <v>158364</v>
+        <v>238861</v>
       </c>
       <c r="E154" s="5">
         <v>2016</v>
@@ -4888,17 +5133,17 @@
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="4" t="s">
-        <v>143</v>
+      <c r="A155" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>333675</v>
+        <v>505231</v>
       </c>
       <c r="C155" s="2">
-        <v>156759</v>
+        <v>237915</v>
       </c>
       <c r="D155" s="2">
-        <v>176915</v>
+        <v>267316</v>
       </c>
       <c r="E155" s="5">
         <v>2016</v>
@@ -4912,17 +5157,17 @@
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" ht="21">
-      <c r="A156" s="4" t="s">
-        <v>144</v>
+      <c r="A156" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>5722</v>
+        <v>8665</v>
       </c>
       <c r="C156" s="2">
-        <v>3209</v>
+        <v>4868</v>
       </c>
       <c r="D156" s="2">
-        <v>2513</v>
+        <v>3798</v>
       </c>
       <c r="E156" s="5">
         <v>2016</v>
@@ -4936,17 +5181,17 @@
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" ht="21">
-      <c r="A157" s="4" t="s">
-        <v>145</v>
+      <c r="A157" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>7940</v>
+        <v>12028</v>
       </c>
       <c r="C157" s="2">
-        <v>4949</v>
+        <v>7521</v>
       </c>
       <c r="D157" s="2">
-        <v>2991</v>
+        <v>4508</v>
       </c>
       <c r="E157" s="5">
         <v>2016</v>
@@ -4960,8 +5205,8 @@
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" ht="21">
-      <c r="A158" s="4" t="s">
-        <v>146</v>
+      <c r="A158" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4984,17 +5229,17 @@
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" ht="21">
-      <c r="A159" s="4" t="s">
-        <v>147</v>
+      <c r="A159" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>3653</v>
+        <v>5536</v>
       </c>
       <c r="C159" s="3">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="D159" s="2">
-        <v>3546</v>
+        <v>5373</v>
       </c>
       <c r="E159" s="5">
         <v>2016</v>
@@ -5008,17 +5253,17 @@
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10" ht="21">
-      <c r="A160" s="4" t="s">
-        <v>148</v>
+      <c r="A160" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>30390</v>
+        <v>46094</v>
       </c>
       <c r="C160" s="2">
-        <v>23046</v>
+        <v>34979</v>
       </c>
       <c r="D160" s="2">
-        <v>7344</v>
+        <v>11115</v>
       </c>
       <c r="E160" s="5">
         <v>2016</v>
@@ -5032,17 +5277,17 @@
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" ht="21">
-      <c r="A161" s="4" t="s">
-        <v>149</v>
+      <c r="A161" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>5720</v>
+        <v>8675</v>
       </c>
       <c r="C161" s="2">
-        <v>5680</v>
+        <v>8615</v>
       </c>
       <c r="D161" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E161" s="5">
         <v>2016</v>
@@ -5056,17 +5301,17 @@
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" ht="21">
-      <c r="A162" s="4" t="s">
-        <v>233</v>
+      <c r="A162" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E162" s="5">
         <v>2016</v>
@@ -5080,17 +5325,17 @@
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" ht="21">
-      <c r="A163" s="4" t="s">
-        <v>150</v>
+      <c r="A163" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>13650047</v>
+        <v>20727122</v>
       </c>
       <c r="C163" s="2">
-        <v>6893006</v>
+        <v>10479254</v>
       </c>
       <c r="D163" s="2">
-        <v>6757041</v>
+        <v>10247868</v>
       </c>
       <c r="E163" s="5">
         <v>2016</v>
@@ -5104,14 +5349,14 @@
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" ht="21">
-      <c r="A164" s="4" t="s">
-        <v>151</v>
+      <c r="A164" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>2148</v>
+        <v>3276</v>
       </c>
       <c r="C164" s="2">
-        <v>2147</v>
+        <v>3276</v>
       </c>
       <c r="D164" s="3">
         <v>0</v>
@@ -5128,17 +5373,17 @@
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" ht="21">
-      <c r="A165" s="4" t="s">
-        <v>152</v>
+      <c r="A165" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>915738</v>
+        <v>1390908</v>
       </c>
       <c r="C165" s="2">
-        <v>393459</v>
+        <v>597974</v>
       </c>
       <c r="D165" s="2">
-        <v>522279</v>
+        <v>792935</v>
       </c>
       <c r="E165" s="5">
         <v>2016</v>
@@ -5152,14 +5397,14 @@
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" ht="21">
-      <c r="A166" s="4" t="s">
-        <v>153</v>
+      <c r="A166" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1396</v>
+        <v>2123</v>
       </c>
       <c r="C166" s="2">
-        <v>1396</v>
+        <v>2123</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5176,17 +5421,17 @@
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" ht="21">
-      <c r="A167" s="4" t="s">
-        <v>154</v>
+      <c r="A167" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>30166</v>
+        <v>45763</v>
       </c>
       <c r="C167" s="2">
-        <v>7927</v>
+        <v>12067</v>
       </c>
       <c r="D167" s="2">
-        <v>22240</v>
+        <v>33696</v>
       </c>
       <c r="E167" s="5">
         <v>2016</v>
@@ -5200,17 +5445,17 @@
       <c r="J167" s="3"/>
     </row>
     <row r="168" spans="1:10" ht="21">
-      <c r="A168" s="4" t="s">
-        <v>155</v>
+      <c r="A168" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>3637</v>
+        <v>5535</v>
       </c>
       <c r="C168" s="2">
-        <v>3276</v>
+        <v>4986</v>
       </c>
       <c r="D168" s="3">
-        <v>361</v>
+        <v>549</v>
       </c>
       <c r="E168" s="5">
         <v>2016</v>
@@ -5224,17 +5469,17 @@
       <c r="J168" s="3"/>
     </row>
     <row r="169" spans="1:10" ht="21">
-      <c r="A169" s="4" t="s">
-        <v>156</v>
+      <c r="A169" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>5524</v>
+        <v>8409</v>
       </c>
       <c r="C169" s="2">
-        <v>5416</v>
+        <v>8246</v>
       </c>
       <c r="D169" s="3">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="E169" s="5">
         <v>2016</v>
@@ -5248,17 +5493,17 @@
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" ht="21">
-      <c r="A170" s="4" t="s">
-        <v>157</v>
+      <c r="A170" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>50742</v>
+        <v>77150</v>
       </c>
       <c r="C170" s="2">
-        <v>34509</v>
+        <v>52550</v>
       </c>
       <c r="D170" s="2">
-        <v>16233</v>
+        <v>24600</v>
       </c>
       <c r="E170" s="5">
         <v>2016</v>
@@ -5272,17 +5517,17 @@
       <c r="J170" s="3"/>
     </row>
     <row r="171" spans="1:10" ht="21">
-      <c r="A171" s="4" t="s">
-        <v>158</v>
+      <c r="A171" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C171" s="3">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="5">
         <v>2016</v>
@@ -5296,17 +5541,17 @@
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" ht="21">
-      <c r="A172" s="4" t="s">
-        <v>159</v>
+      <c r="A172" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>4811283</v>
+        <v>7302496</v>
       </c>
       <c r="C172" s="2">
-        <v>1392609</v>
+        <v>2116542</v>
       </c>
       <c r="D172" s="2">
-        <v>3418673</v>
+        <v>5185955</v>
       </c>
       <c r="E172" s="5">
         <v>2016</v>
@@ -5320,14 +5565,14 @@
       <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10" ht="21">
-      <c r="A173" s="4" t="s">
-        <v>160</v>
+      <c r="A173" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B173" s="2">
-        <v>54071</v>
+        <v>82038</v>
       </c>
       <c r="C173" s="2">
-        <v>54071</v>
+        <v>82038</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5344,17 +5589,17 @@
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" ht="21">
-      <c r="A174" s="4" t="s">
-        <v>161</v>
+      <c r="A174" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1737721</v>
+        <v>2637259</v>
       </c>
       <c r="C174" s="2">
-        <v>786016</v>
+        <v>1194954</v>
       </c>
       <c r="D174" s="2">
-        <v>951705</v>
+        <v>1442304</v>
       </c>
       <c r="E174" s="5">
         <v>2016</v>
@@ -5368,17 +5613,17 @@
       <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10" ht="21">
-      <c r="A175" s="4" t="s">
-        <v>162</v>
+      <c r="A175" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>582400</v>
+        <v>884903</v>
       </c>
       <c r="C175" s="2">
-        <v>415782</v>
+        <v>632200</v>
       </c>
       <c r="D175" s="2">
-        <v>166617</v>
+        <v>252702</v>
       </c>
       <c r="E175" s="5">
         <v>2016</v>
@@ -5392,17 +5637,17 @@
       <c r="J175" s="3"/>
     </row>
     <row r="176" spans="1:10" ht="21">
-      <c r="A176" s="4" t="s">
-        <v>163</v>
+      <c r="A176" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>2321</v>
+        <v>3523</v>
       </c>
       <c r="C176" s="2">
-        <v>2317</v>
+        <v>3516</v>
       </c>
       <c r="D176" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E176" s="5">
         <v>2016</v>
@@ -5416,17 +5661,17 @@
       <c r="J176" s="3"/>
     </row>
     <row r="177" spans="1:10" ht="21">
-      <c r="A177" s="4" t="s">
-        <v>164</v>
+      <c r="A177" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>140104</v>
+        <v>212857</v>
       </c>
       <c r="C177" s="2">
-        <v>97159</v>
+        <v>147734</v>
       </c>
       <c r="D177" s="2">
-        <v>42946</v>
+        <v>65123</v>
       </c>
       <c r="E177" s="5">
         <v>2016</v>
@@ -5440,17 +5685,17 @@
       <c r="J177" s="3"/>
     </row>
     <row r="178" spans="1:10" ht="21">
-      <c r="A178" s="4" t="s">
-        <v>165</v>
+      <c r="A178" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>112283</v>
+        <v>170682</v>
       </c>
       <c r="C178" s="2">
-        <v>106995</v>
+        <v>162700</v>
       </c>
       <c r="D178" s="2">
-        <v>5289</v>
+        <v>7983</v>
       </c>
       <c r="E178" s="5">
         <v>2016</v>
@@ -5464,14 +5709,14 @@
       <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10" ht="21">
-      <c r="A179" s="4" t="s">
-        <v>166</v>
+      <c r="A179" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1245</v>
+        <v>1896</v>
       </c>
       <c r="C179" s="2">
-        <v>1244</v>
+        <v>1895</v>
       </c>
       <c r="D179" s="3">
         <v>0</v>
@@ -5488,17 +5733,17 @@
       <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10" ht="21">
-      <c r="A180" s="4" t="s">
-        <v>167</v>
+      <c r="A180" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>102205</v>
+        <v>155401</v>
       </c>
       <c r="C180" s="2">
-        <v>97648</v>
+        <v>148489</v>
       </c>
       <c r="D180" s="2">
-        <v>4558</v>
+        <v>6911</v>
       </c>
       <c r="E180" s="5">
         <v>2016</v>
@@ -5512,17 +5757,17 @@
       <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10" ht="21">
-      <c r="A181" s="4" t="s">
-        <v>168</v>
+      <c r="A181" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>188004</v>
+        <v>285513</v>
       </c>
       <c r="C181" s="2">
-        <v>124152</v>
+        <v>188722</v>
       </c>
       <c r="D181" s="2">
-        <v>63852</v>
+        <v>96791</v>
       </c>
       <c r="E181" s="5">
         <v>2016</v>
@@ -5536,17 +5781,17 @@
       <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10" ht="21">
-      <c r="A182" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B182" s="3">
-        <v>736</v>
-      </c>
-      <c r="C182" s="3">
-        <v>732</v>
+      <c r="A182" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1112</v>
       </c>
       <c r="D182" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E182" s="5">
         <v>2016</v>
@@ -5560,14 +5805,14 @@
       <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10" ht="21">
-      <c r="A183" s="4" t="s">
-        <v>170</v>
+      <c r="A183" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="C183" s="3">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="D183" s="3">
         <v>0</v>
@@ -5584,14 +5829,14 @@
       <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10" ht="21">
-      <c r="A184" s="4" t="s">
-        <v>171</v>
+      <c r="A184" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>1906</v>
+        <v>2894</v>
       </c>
       <c r="C184" s="2">
-        <v>1906</v>
+        <v>2893</v>
       </c>
       <c r="D184" s="3">
         <v>0</v>
@@ -5608,17 +5853,17 @@
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" ht="21">
-      <c r="A185" s="4" t="s">
-        <v>172</v>
+      <c r="A185" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>121943</v>
+        <v>185500</v>
       </c>
       <c r="C185" s="2">
-        <v>116672</v>
+        <v>177511</v>
       </c>
       <c r="D185" s="2">
-        <v>5271</v>
+        <v>7989</v>
       </c>
       <c r="E185" s="5">
         <v>2016</v>
@@ -5632,17 +5877,17 @@
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" ht="21">
-      <c r="A186" s="4" t="s">
-        <v>173</v>
+      <c r="A186" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>12319</v>
+        <v>18734</v>
       </c>
       <c r="C186" s="2">
-        <v>11099</v>
+        <v>16883</v>
       </c>
       <c r="D186" s="2">
-        <v>1220</v>
+        <v>1851</v>
       </c>
       <c r="E186" s="5">
         <v>2016</v>
@@ -5656,17 +5901,17 @@
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" ht="21">
-      <c r="A187" s="4" t="s">
-        <v>174</v>
+      <c r="A187" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>25682</v>
+        <v>39034</v>
       </c>
       <c r="C187" s="2">
-        <v>25536</v>
+        <v>38811</v>
       </c>
       <c r="D187" s="3">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="E187" s="5">
         <v>2016</v>
@@ -5680,17 +5925,17 @@
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" ht="21">
-      <c r="A188" s="4" t="s">
-        <v>175</v>
+      <c r="A188" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>42413</v>
+        <v>64526</v>
       </c>
       <c r="C188" s="2">
-        <v>41363</v>
+        <v>62934</v>
       </c>
       <c r="D188" s="2">
-        <v>1051</v>
+        <v>1592</v>
       </c>
       <c r="E188" s="5">
         <v>2016</v>
@@ -5704,17 +5949,17 @@
       <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10" ht="21">
-      <c r="A189" s="4" t="s">
-        <v>176</v>
+      <c r="A189" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>31503</v>
+        <v>47925</v>
       </c>
       <c r="C189" s="2">
-        <v>31414</v>
+        <v>47790</v>
       </c>
       <c r="D189" s="3">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="E189" s="5">
         <v>2016</v>
@@ -5728,14 +5973,14 @@
       <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10" ht="21">
-      <c r="A190" s="4" t="s">
-        <v>177</v>
+      <c r="A190" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>1410</v>
+        <v>2144</v>
       </c>
       <c r="C190" s="2">
-        <v>1410</v>
+        <v>2143</v>
       </c>
       <c r="D190" s="3">
         <v>1</v>
@@ -5752,17 +5997,17 @@
       <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10" ht="21">
-      <c r="A191" s="4" t="s">
-        <v>178</v>
+      <c r="A191" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>2424208</v>
+        <v>3682624</v>
       </c>
       <c r="C191" s="2">
-        <v>1911384</v>
+        <v>2904914</v>
       </c>
       <c r="D191" s="2">
-        <v>512824</v>
+        <v>777710</v>
       </c>
       <c r="E191" s="5">
         <v>2016</v>
@@ -5776,8 +6021,8 @@
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" ht="21">
-      <c r="A192" s="4" t="s">
-        <v>179</v>
+      <c r="A192" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -5786,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E192" s="5">
         <v>2016</v>
@@ -5800,17 +6045,17 @@
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" ht="21">
-      <c r="A193" s="4" t="s">
-        <v>180</v>
+      <c r="A193" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>38580</v>
+        <v>58683</v>
       </c>
       <c r="C193" s="2">
-        <v>37874</v>
-      </c>
-      <c r="D193" s="3">
-        <v>706</v>
+        <v>57610</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1073</v>
       </c>
       <c r="E193" s="5">
         <v>2016</v>
@@ -5824,17 +6069,17 @@
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" ht="21">
-      <c r="A194" s="4" t="s">
-        <v>181</v>
+      <c r="A194" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>407915</v>
+        <v>620917</v>
       </c>
       <c r="C194" s="2">
-        <v>404368</v>
+        <v>615538</v>
       </c>
       <c r="D194" s="2">
-        <v>3547</v>
+        <v>5379</v>
       </c>
       <c r="E194" s="5">
         <v>2016</v>
@@ -5848,17 +6093,17 @@
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" ht="21">
-      <c r="A195" s="4" t="s">
-        <v>182</v>
+      <c r="A195" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>86575</v>
+        <v>131612</v>
       </c>
       <c r="C195" s="2">
-        <v>84497</v>
+        <v>128463</v>
       </c>
       <c r="D195" s="2">
-        <v>2079</v>
+        <v>3150</v>
       </c>
       <c r="E195" s="5">
         <v>2016</v>
@@ -5872,17 +6117,17 @@
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" ht="21">
-      <c r="A196" s="4" t="s">
-        <v>183</v>
+      <c r="A196" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>843223</v>
+        <v>1280451</v>
       </c>
       <c r="C196" s="2">
-        <v>335140</v>
+        <v>509909</v>
       </c>
       <c r="D196" s="2">
-        <v>508083</v>
+        <v>770542</v>
       </c>
       <c r="E196" s="5">
         <v>2016</v>
@@ -5896,17 +6141,17 @@
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" ht="21">
-      <c r="A197" s="4" t="s">
-        <v>234</v>
+      <c r="A197" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>66451</v>
+        <v>100725</v>
       </c>
       <c r="C197" s="2">
-        <v>34784</v>
+        <v>52899</v>
       </c>
       <c r="D197" s="2">
-        <v>31666</v>
+        <v>47826</v>
       </c>
       <c r="E197" s="5">
         <v>2016</v>
@@ -5920,17 +6165,17 @@
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" ht="21">
-      <c r="A198" s="4" t="s">
-        <v>235</v>
+      <c r="A198" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B198" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C198" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="5">
         <v>2016</v>
@@ -5944,14 +6189,14 @@
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" ht="21">
-      <c r="A199" s="4" t="s">
-        <v>184</v>
+      <c r="A199" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B199" s="3">
-        <v>501</v>
+        <v>762</v>
       </c>
       <c r="C199" s="3">
-        <v>500</v>
+        <v>760</v>
       </c>
       <c r="D199" s="3">
         <v>2</v>
@@ -5968,17 +6213,17 @@
       <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10" ht="21">
-      <c r="A200" s="4" t="s">
-        <v>185</v>
+      <c r="A200" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="C200" s="3">
-        <v>246</v>
+        <v>373</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E200" s="5">
         <v>2016</v>
@@ -5992,17 +6237,17 @@
       <c r="J200" s="3"/>
     </row>
     <row r="201" spans="1:10" ht="21">
-      <c r="A201" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B201" s="3">
-        <v>826</v>
-      </c>
-      <c r="C201" s="3">
-        <v>826</v>
+      <c r="A201" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1255</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1255</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E201" s="5">
         <v>2016</v>
@@ -6016,17 +6261,17 @@
       <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10" ht="21">
-      <c r="A202" s="4" t="s">
-        <v>187</v>
+      <c r="A202" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>42914</v>
+        <v>65291</v>
       </c>
       <c r="C202" s="2">
-        <v>40399</v>
+        <v>61478</v>
       </c>
       <c r="D202" s="2">
-        <v>2515</v>
+        <v>3814</v>
       </c>
       <c r="E202" s="5">
         <v>2016</v>
@@ -6040,17 +6285,17 @@
       <c r="J202" s="3"/>
     </row>
     <row r="203" spans="1:10" ht="21">
-      <c r="A203" s="4" t="s">
-        <v>236</v>
+      <c r="A203" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>8711</v>
+        <v>13226</v>
       </c>
       <c r="C203" s="2">
-        <v>7354</v>
+        <v>11167</v>
       </c>
       <c r="D203" s="2">
-        <v>1357</v>
+        <v>2058</v>
       </c>
       <c r="E203" s="5">
         <v>2016</v>
@@ -6064,17 +6309,17 @@
       <c r="J203" s="3"/>
     </row>
     <row r="204" spans="1:10" ht="21">
-      <c r="A204" s="4" t="s">
-        <v>188</v>
+      <c r="A204" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>39114</v>
+        <v>59471</v>
       </c>
       <c r="C204" s="2">
-        <v>24340</v>
+        <v>37017</v>
       </c>
       <c r="D204" s="2">
-        <v>14774</v>
+        <v>22454</v>
       </c>
       <c r="E204" s="5">
         <v>2016</v>
@@ -6088,14 +6333,14 @@
       <c r="J204" s="3"/>
     </row>
     <row r="205" spans="1:10" ht="21">
-      <c r="A205" s="4" t="s">
-        <v>189</v>
+      <c r="A205" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C205" s="3">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D205" s="3">
         <v>0</v>
@@ -6112,17 +6357,17 @@
       <c r="J205" s="3"/>
     </row>
     <row r="206" spans="1:10" ht="21">
-      <c r="A206" s="4" t="s">
-        <v>237</v>
+      <c r="A206" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>188835</v>
+        <v>286719</v>
       </c>
       <c r="C206" s="2">
-        <v>95434</v>
+        <v>145116</v>
       </c>
       <c r="D206" s="2">
-        <v>93401</v>
+        <v>141603</v>
       </c>
       <c r="E206" s="5">
         <v>2016</v>
@@ -6136,17 +6381,17 @@
       <c r="J206" s="3"/>
     </row>
     <row r="207" spans="1:10" ht="21">
-      <c r="A207" s="4" t="s">
-        <v>190</v>
+      <c r="A207" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>519517</v>
+        <v>788036</v>
       </c>
       <c r="C207" s="2">
-        <v>156102</v>
+        <v>237333</v>
       </c>
       <c r="D207" s="2">
-        <v>363415</v>
+        <v>550703</v>
       </c>
       <c r="E207" s="5">
         <v>2016</v>
@@ -6160,14 +6405,14 @@
       <c r="J207" s="3"/>
     </row>
     <row r="208" spans="1:10" ht="21">
-      <c r="A208" s="4" t="s">
-        <v>191</v>
+      <c r="A208" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="C208" s="3">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
@@ -6184,17 +6429,17 @@
       <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10" ht="21">
-      <c r="A209" s="4" t="s">
-        <v>192</v>
+      <c r="A209" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="B209" s="3">
-        <v>360</v>
+        <v>548</v>
       </c>
       <c r="C209" s="3">
-        <v>337</v>
+        <v>514</v>
       </c>
       <c r="D209" s="3">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E209" s="5">
         <v>2016</v>
@@ -6208,17 +6453,17 @@
       <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10" ht="21">
-      <c r="A210" s="4" t="s">
-        <v>193</v>
+      <c r="A210" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B210" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C210" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="5">
         <v>2016</v>
@@ -6232,17 +6477,17 @@
       <c r="J210" s="3"/>
     </row>
     <row r="211" spans="1:10" ht="21">
-      <c r="A211" s="4" t="s">
-        <v>194</v>
+      <c r="A211" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>2467</v>
+        <v>3751</v>
       </c>
       <c r="C211" s="2">
-        <v>2466</v>
+        <v>3750</v>
       </c>
       <c r="D211" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" s="5">
         <v>2016</v>
@@ -6256,17 +6501,17 @@
       <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:10" ht="21">
-      <c r="A212" s="4" t="s">
-        <v>195</v>
+      <c r="A212" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="C212" s="3">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="5">
         <v>2016</v>
@@ -6280,17 +6525,17 @@
       <c r="J212" s="3"/>
     </row>
     <row r="213" spans="1:10" ht="21">
-      <c r="A213" s="4" t="s">
-        <v>196</v>
+      <c r="A213" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>31555855</v>
+        <v>47930932</v>
       </c>
       <c r="C213" s="2">
-        <v>24224775</v>
+        <v>36816310</v>
       </c>
       <c r="D213" s="2">
-        <v>7331081</v>
+        <v>11114622</v>
       </c>
       <c r="E213" s="5">
         <v>2016</v>
@@ -6304,17 +6549,17 @@
       <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:10" ht="21">
-      <c r="A214" s="4" t="s">
-        <v>197</v>
+      <c r="A214" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>2526368</v>
+        <v>3836731</v>
       </c>
       <c r="C214" s="2">
-        <v>1630355</v>
+        <v>2478000</v>
       </c>
       <c r="D214" s="2">
-        <v>896012</v>
+        <v>1358731</v>
       </c>
       <c r="E214" s="5">
         <v>2016</v>
@@ -6328,17 +6573,17 @@
       <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:10" ht="21">
-      <c r="A215" s="4" t="s">
-        <v>198</v>
+      <c r="A215" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>28984779</v>
+        <v>44025705</v>
       </c>
       <c r="C215" s="2">
-        <v>22554734</v>
+        <v>34277463</v>
       </c>
       <c r="D215" s="2">
-        <v>6430045</v>
+        <v>9748243</v>
       </c>
       <c r="E215" s="5">
         <v>2016</v>
@@ -6352,17 +6597,17 @@
       <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:10" ht="21">
-      <c r="A216" s="4" t="s">
-        <v>238</v>
+      <c r="A216" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>5138</v>
+        <v>7824</v>
       </c>
       <c r="C216" s="3">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="D216" s="2">
-        <v>5023</v>
+        <v>7648</v>
       </c>
       <c r="E216" s="5">
         <v>2016</v>
@@ -6376,14 +6621,14 @@
       <c r="J216" s="3"/>
     </row>
     <row r="217" spans="1:10" ht="21">
-      <c r="A217" s="4" t="s">
-        <v>199</v>
+      <c r="A217" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="B217" s="2">
-        <v>39570</v>
+        <v>60671</v>
       </c>
       <c r="C217" s="2">
-        <v>39570</v>
+        <v>60671</v>
       </c>
       <c r="D217" s="3">
         <v>0</v>
@@ -6400,17 +6645,17 @@
       <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:10" ht="21">
-      <c r="A218" s="4" t="s">
-        <v>200</v>
+      <c r="A218" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="5">
         <v>2016</v>
@@ -6424,17 +6669,17 @@
       <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:10" ht="21">
-      <c r="A219" s="4" t="s">
-        <v>239</v>
+      <c r="A219" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>7126287</v>
+        <v>10818565</v>
       </c>
       <c r="C219" s="2">
-        <v>2659244</v>
+        <v>4041777</v>
       </c>
       <c r="D219" s="2">
-        <v>4467043</v>
+        <v>6776788</v>
       </c>
       <c r="E219" s="5">
         <v>2016</v>
@@ -6448,17 +6693,17 @@
       <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:10" ht="21">
-      <c r="A220" s="4" t="s">
-        <v>240</v>
+      <c r="A220" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>6014265</v>
+        <v>9128658</v>
       </c>
       <c r="C220" s="2">
-        <v>2058720</v>
+        <v>3127559</v>
       </c>
       <c r="D220" s="2">
-        <v>3955545</v>
+        <v>6001099</v>
       </c>
       <c r="E220" s="5">
         <v>2016</v>
@@ -6472,17 +6717,17 @@
       <c r="J220" s="3"/>
     </row>
     <row r="221" spans="1:10" ht="21">
-      <c r="A221" s="4" t="s">
-        <v>241</v>
+      <c r="A221" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="B221" s="3">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C221" s="3">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="D221" s="3">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E221" s="5">
         <v>2016</v>
@@ -6496,17 +6741,17 @@
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" ht="21">
-      <c r="A222" s="4" t="s">
-        <v>201</v>
+      <c r="A222" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>21838</v>
+        <v>33169</v>
       </c>
       <c r="C222" s="2">
-        <v>21487</v>
+        <v>32637</v>
       </c>
       <c r="D222" s="3">
-        <v>351</v>
+        <v>532</v>
       </c>
       <c r="E222" s="5">
         <v>2016</v>
@@ -6520,17 +6765,17 @@
       <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:10" ht="21">
-      <c r="A223" s="4" t="s">
-        <v>202</v>
+      <c r="A223" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="5">
         <v>2016</v>
@@ -6544,17 +6789,17 @@
       <c r="J223" s="3"/>
     </row>
     <row r="224" spans="1:10" ht="21">
-      <c r="A224" s="4" t="s">
-        <v>203</v>
+      <c r="A224" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="5">
         <v>2016</v>
@@ -6568,17 +6813,17 @@
       <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:10" ht="21">
-      <c r="A225" s="4" t="s">
-        <v>242</v>
+      <c r="A225" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C225" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D225" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" s="5">
         <v>2016</v>
@@ -6592,17 +6837,17 @@
       <c r="J225" s="3"/>
     </row>
     <row r="226" spans="1:10" ht="21">
-      <c r="A226" s="4" t="s">
-        <v>204</v>
+      <c r="A226" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>36627</v>
+        <v>55587</v>
       </c>
       <c r="C226" s="2">
-        <v>4817</v>
+        <v>7325</v>
       </c>
       <c r="D226" s="2">
-        <v>31810</v>
+        <v>48262</v>
       </c>
       <c r="E226" s="5">
         <v>2016</v>
@@ -6616,17 +6861,17 @@
       <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:10" ht="21">
-      <c r="A227" s="4" t="s">
-        <v>205</v>
+      <c r="A227" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>2901</v>
+        <v>4411</v>
       </c>
       <c r="C227" s="2">
-        <v>2826</v>
+        <v>4296</v>
       </c>
       <c r="D227" s="3">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E227" s="5">
         <v>2016</v>
@@ -6640,17 +6885,17 @@
       <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:10" ht="21">
-      <c r="A228" s="4" t="s">
-        <v>206</v>
+      <c r="A228" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>675227</v>
+        <v>1024734</v>
       </c>
       <c r="C228" s="2">
-        <v>275891</v>
+        <v>419261</v>
       </c>
       <c r="D228" s="2">
-        <v>399336</v>
+        <v>605473</v>
       </c>
       <c r="E228" s="5">
         <v>2016</v>
@@ -6664,17 +6909,17 @@
       <c r="J228" s="3"/>
     </row>
     <row r="229" spans="1:10" ht="21">
-      <c r="A229" s="4" t="s">
-        <v>207</v>
+      <c r="A229" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="C229" s="3">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="5">
         <v>2016</v>
@@ -6688,17 +6933,17 @@
       <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:10" ht="21">
-      <c r="A230" s="4" t="s">
-        <v>243</v>
+      <c r="A230" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>83446</v>
+        <v>126716</v>
       </c>
       <c r="C230" s="2">
-        <v>30761</v>
+        <v>46736</v>
       </c>
       <c r="D230" s="2">
-        <v>52685</v>
+        <v>79980</v>
       </c>
       <c r="E230" s="5">
         <v>2016</v>
@@ -6712,17 +6957,17 @@
       <c r="J230" s="3"/>
     </row>
     <row r="231" spans="1:10" ht="21">
-      <c r="A231" s="4" t="s">
-        <v>208</v>
+      <c r="A231" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="C231" s="3">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="5">
         <v>2016</v>
@@ -6736,17 +6981,17 @@
       <c r="J231" s="3"/>
     </row>
     <row r="232" spans="1:10" ht="21">
-      <c r="A232" s="4" t="s">
-        <v>209</v>
+      <c r="A232" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>26453</v>
+        <v>40160</v>
       </c>
       <c r="C232" s="2">
-        <v>4412</v>
+        <v>6716</v>
       </c>
       <c r="D232" s="2">
-        <v>22041</v>
+        <v>33444</v>
       </c>
       <c r="E232" s="5">
         <v>2016</v>
@@ -6760,17 +7005,17 @@
       <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:10" ht="21">
-      <c r="A233" s="4" t="s">
-        <v>210</v>
+      <c r="A233" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>2244</v>
+        <v>3407</v>
       </c>
       <c r="C233" s="2">
-        <v>2244</v>
+        <v>3407</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E233" s="5">
         <v>2016</v>
@@ -6784,17 +7029,17 @@
       <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:10" ht="21">
-      <c r="A234" s="4" t="s">
-        <v>211</v>
+      <c r="A234" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="5">
         <v>2016</v>
@@ -6808,17 +7053,17 @@
       <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:10" ht="21">
-      <c r="A235" s="4" t="s">
-        <v>212</v>
+      <c r="A235" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="5">
         <v>2016</v>
@@ -6832,17 +7077,17 @@
       <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:10" ht="21">
-      <c r="A236" s="4" t="s">
-        <v>213</v>
+      <c r="A236" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>5033</v>
+        <v>7653</v>
       </c>
       <c r="C236" s="2">
-        <v>4999</v>
+        <v>7603</v>
       </c>
       <c r="D236" s="3">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E236" s="5">
         <v>2016</v>
@@ -6856,14 +7101,14 @@
       <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:10" ht="21">
-      <c r="A237" s="4" t="s">
-        <v>214</v>
+      <c r="A237" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>3231</v>
+        <v>5036</v>
       </c>
       <c r="C237" s="2">
-        <v>3231</v>
+        <v>5036</v>
       </c>
       <c r="D237" s="3">
         <v>0</v>
@@ -6880,17 +7125,17 @@
       <c r="J237" s="3"/>
     </row>
     <row r="238" spans="1:10" ht="21">
-      <c r="A238" s="4" t="s">
-        <v>215</v>
+      <c r="A238" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="B238" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C238" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E238" s="5">
         <v>2016</v>
@@ -6904,17 +7149,17 @@
       <c r="J238" s="3"/>
     </row>
     <row r="239" spans="1:10" ht="21">
-      <c r="A239" s="4" t="s">
-        <v>216</v>
+      <c r="A239" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="B239" s="2">
-        <v>2916</v>
-      </c>
-      <c r="C239" s="3">
-        <v>707</v>
+        <v>4427</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1080</v>
       </c>
       <c r="D239" s="2">
-        <v>2209</v>
+        <v>3346</v>
       </c>
       <c r="E239" s="5">
         <v>2016</v>
@@ -6928,17 +7173,17 @@
       <c r="J239" s="3"/>
     </row>
     <row r="240" spans="1:10" ht="21">
-      <c r="A240" s="4" t="s">
-        <v>217</v>
+      <c r="A240" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>246550</v>
+        <v>376145</v>
       </c>
       <c r="C240" s="2">
-        <v>244278</v>
+        <v>372703</v>
       </c>
       <c r="D240" s="2">
-        <v>2272</v>
+        <v>3442</v>
       </c>
       <c r="E240" s="5">
         <v>2016</v>
@@ -6952,17 +7197,17 @@
       <c r="J240" s="3"/>
     </row>
     <row r="241" spans="1:10" ht="21">
-      <c r="A241" s="4" t="s">
-        <v>218</v>
+      <c r="A241" s="6" t="s">
+        <v>245</v>
       </c>
       <c r="B241" s="2">
-        <v>1011</v>
+        <v>1554</v>
       </c>
       <c r="C241" s="2">
-        <v>1011</v>
+        <v>1554</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E241" s="5">
         <v>2016</v>
@@ -6976,17 +7221,17 @@
       <c r="J241" s="3"/>
     </row>
     <row r="242" spans="1:10" ht="21">
-      <c r="A242" s="4" t="s">
-        <v>219</v>
+      <c r="A242" s="6" t="s">
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>3631</v>
+        <v>5513</v>
       </c>
       <c r="C242" s="2">
-        <v>2975</v>
+        <v>4515</v>
       </c>
       <c r="D242" s="3">
-        <v>656</v>
+        <v>998</v>
       </c>
       <c r="E242" s="5">
         <v>2016</v>
@@ -7000,17 +7245,17 @@
       <c r="J242" s="3"/>
     </row>
     <row r="243" spans="1:10" ht="21">
-      <c r="A243" s="4" t="s">
-        <v>220</v>
+      <c r="A243" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C243" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="5">
         <v>2016</v>
@@ -7024,17 +7269,17 @@
       <c r="J243" s="3"/>
     </row>
     <row r="244" spans="1:10" ht="21">
-      <c r="A244" s="4" t="s">
-        <v>244</v>
+      <c r="A244" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>394</v>
+        <v>602</v>
       </c>
       <c r="C244" s="3">
-        <v>394</v>
+        <v>602</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E244" s="5">
         <v>2016</v>
@@ -7048,17 +7293,17 @@
       <c r="J244" s="3"/>
     </row>
     <row r="245" spans="1:10" ht="21">
-      <c r="A245" s="4" t="s">
-        <v>221</v>
+      <c r="A245" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>81213</v>
+        <v>123042</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>81213</v>
+        <v>123042</v>
       </c>
       <c r="E245" s="5">
         <v>2016</v>
